--- a/outils/competences.xlsx
+++ b/outils/competences.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91153A9F-D4A7-4CD2-85D0-BA8D1B006E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <definedName name="profils">Feuil2!$F$3:$F$6</definedName>
     <definedName name="seuil_apprentissage">Tableau2[Niveau]</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>Voie</t>
   </si>
@@ -60,9 +61,6 @@
   </si>
   <si>
     <t>Masqué</t>
-  </si>
-  <si>
-    <t>HTML</t>
   </si>
   <si>
     <t>Nom</t>
@@ -196,13 +194,25 @@
   </si>
   <si>
     <t>Attaque avec 2 jets de localisation qui ignore l'armure si les jets de localisation forment une paire</t>
+  </si>
+  <si>
+    <t>HTML_passif</t>
+  </si>
+  <si>
+    <t>HTML_profil</t>
+  </si>
+  <si>
+    <t>HTML_nom</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +224,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -253,11 +269,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -265,6 +287,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -279,6 +305,12 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -302,39 +334,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:P62" totalsRowShown="0">
-  <autoFilter ref="B5:P62"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Voie"/>
-    <tableColumn id="2" name="Niveau" dataDxfId="4"/>
-    <tableColumn id="3" name="Nom"/>
-    <tableColumn id="15" name="Apprentissage" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="B5:S62" totalsRowShown="0">
+  <autoFilter ref="B5:S62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Voie"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Niveau" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Nom"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Apprentissage" dataDxfId="6">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Exécution"/>
-    <tableColumn id="5" name="Souffle"/>
-    <tableColumn id="6" name="Concentration"/>
-    <tableColumn id="7" name="Adrénaline"/>
-    <tableColumn id="8" name="Passif ?"/>
-    <tableColumn id="9" name="Action de combat ?"/>
-    <tableColumn id="16" name="Profil"/>
-    <tableColumn id="10" name="Innée ?" dataDxfId="1">
-      <calculatedColumnFormula>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Exécution"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Souffle"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Concentration"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Adrénaline"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Passif ?"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Action de combat ?"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Profil"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Innée ?" dataDxfId="5">
+      <calculatedColumnFormula>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Effets"/>
-    <tableColumn id="12" name="Améliorable ?" dataDxfId="3"/>
-    <tableColumn id="13" name="HTML" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Effets"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Améliorable ?" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="HTML_nom" dataDxfId="3">
+      <calculatedColumnFormula>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{84516C33-63C3-44C6-A15E-FCCAA86CD9D2}" name="HTML_passif" dataDxfId="2">
+      <calculatedColumnFormula>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{A7C0B43E-A134-401B-BF02-AF99C25F13D1}" name="HTML_profil" dataDxfId="1">
+      <calculatedColumnFormula>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{6E90796F-9644-4C6E-A066-ECE48AFFE23B}" name="Colonne1" dataDxfId="0">
+      <calculatedColumnFormula>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B3:C8" totalsRowShown="0">
-  <autoFilter ref="B3:C8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau2" displayName="Tableau2" ref="B3:C8" totalsRowShown="0">
+  <autoFilter ref="B3:C8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Niveau"/>
-    <tableColumn id="2" name="Apprentissage"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Niveau"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Apprentissage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,17 +645,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
@@ -623,29 +666,31 @@
     <col min="13" max="13" width="9.7109375" customWidth="1"/>
     <col min="14" max="14" width="78.7109375" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="78.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -663,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
         <v>6</v>
@@ -675,18 +720,27 @@
         <v>9</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
@@ -702,95 +756,159 @@
         <v>0</v>
       </c>
       <c r="M6" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="P6" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;Courir&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q6" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R6" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
       </c>
-      <c r="M7" t="str">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v/>
+      <c r="M7" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="P7" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;Leste&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q7" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>21</v>
       </c>
-      <c r="E8">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="str">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="N8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;Déplacement en armure&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q8" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v>15</v>
       </c>
-      <c r="M9" t="str">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;Replacement stratégique&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q9" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -799,743 +917,1608 @@
         <v/>
       </c>
       <c r="M10" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P10" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q10" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R10" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;Coup rapide&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q11" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R11" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v>&lt;span class="profil"&gt;Profil Rapide&lt;/span&gt;</v>
+      </c>
+      <c r="S11" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v>&lt;span class="combat"&gt;Action de combat&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v>10</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;Encore plus vite&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q12" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v>15</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;Rush&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q13" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v>&lt;span class="profil"&gt;Profil Rapide&lt;/span&gt;</v>
+      </c>
+      <c r="S13" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v>&lt;span class="combat"&gt;Action de combat&lt;/span&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;Double coup&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q14" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v/>
+      </c>
+      <c r="R14" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v>&lt;span class="profil"&gt;Profil Rapide&lt;/span&gt;</v>
+      </c>
+      <c r="S14" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M15" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P15" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q15" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R15" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D16" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M11" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="E16" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M16" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P16" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;Coup précis&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q16" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R16" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>34</v>
       </c>
-      <c r="E12">
+      <c r="E17">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v>10</v>
       </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" t="str">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="N12" t="s">
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;Encore plus précis&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q17" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v>15</v>
+      </c>
+      <c r="M18" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;Ignore l'armure&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q18" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v>20</v>
+      </c>
+      <c r="M19" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;Coup ciblé&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q19" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M20" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P20" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q20" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R20" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M21" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P21" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;Coup puissant&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q21" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R21" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S21" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v>10</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;Endurent&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q22" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v/>
+      </c>
+      <c r="R22" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S22" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13">
+      <c r="E23">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v>15</v>
       </c>
-      <c r="M13" t="str">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="N13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="M23" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;Frappe lourde&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q23" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v/>
+      </c>
+      <c r="R23" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S23" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14">
+      <c r="E24">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v>20</v>
       </c>
-      <c r="M14" t="str">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="N14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M15" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="M24" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q24" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v/>
+      </c>
+      <c r="R24" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S24" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M16" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v>10</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" t="str">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="N17" t="s">
+      <c r="E25" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M25" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P25" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q25" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R25" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S25" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v>15</v>
-      </c>
-      <c r="M18" t="str">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="N18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v>20</v>
-      </c>
-      <c r="M19" t="str">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="N19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M20" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="E26" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M26" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P26" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;Attaque à distance&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q26" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R26" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S26" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M21" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="E27" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M27" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P27" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q27" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R27" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S27" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v>10</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" t="str">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="N22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="E28" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M28" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P28" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q28" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R28" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S28" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v>15</v>
-      </c>
-      <c r="M23" t="str">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="N23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="E29" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M29" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P29" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q29" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R29" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S29" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v>20</v>
-      </c>
-      <c r="M24" t="str">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M25" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="E30" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M30" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P30" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q30" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R30" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S30" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M26" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="E31" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M31" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P31" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q31" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R31" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S31" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>26</v>
       </c>
-      <c r="E27" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M27" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="E32" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M32" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P32" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q32" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R32" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S32" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>26</v>
       </c>
-      <c r="E28" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M28" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="E33" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M33" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P33" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q33" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R33" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S33" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>26</v>
       </c>
-      <c r="E29" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M29" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="E34" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M34" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P34" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q34" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R34" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S34" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>26</v>
       </c>
-      <c r="E30" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M30" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="E35" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M35" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P35" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q35" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R35" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S35" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>27</v>
       </c>
-      <c r="E31" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M31" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="E36" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M36" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P36" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q36" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R36" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S36" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>27</v>
       </c>
-      <c r="E32" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M32" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="E37" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M37" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P37" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q37" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R37" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S37" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>27</v>
       </c>
-      <c r="E33" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M33" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="E38" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M38" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P38" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q38" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R38" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S38" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>27</v>
       </c>
-      <c r="E34" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M34" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="E39" t="str">
+        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M39" t="b">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P39" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q39" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R39" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S39" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>27</v>
       </c>
-      <c r="E35" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M35" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M36" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M37" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M38" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" t="str">
-        <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M39" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>28</v>
-      </c>
       <c r="E40" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M40" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P40" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q40" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R40" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S40" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E41" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M41" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P41" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q41" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R41" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S41" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E42" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M42" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P42" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q42" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R42" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S42" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E43" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M43" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P43" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q43" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R43" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S43" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E44" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M44" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P44" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q44" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R44" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S44" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E45" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M45" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P45" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q45" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R45" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S45" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E46" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M46" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P46" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q46" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R46" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S46" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E47" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M47" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P47" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q47" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R47" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S47" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E48" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M48" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="5:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P48" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q48" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R48" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S48" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M49" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="5:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P49" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q49" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R49" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S49" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E50" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M50" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="5:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P50" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q50" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R50" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S50" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E51" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M51" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="5:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P51" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q51" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R51" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S51" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E52" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M52" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="5:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P52" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q52" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R52" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S52" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E53" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M53" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="5:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P53" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q53" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R53" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S53" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E54" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M54" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="5:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P54" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q54" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R54" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S54" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E55" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M55" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="5:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P55" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q55" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R55" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S55" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E56" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M56" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="5:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P56" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q56" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R56" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S56" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E57" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M57" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="5:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P57" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q57" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R57" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S57" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E58" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M58" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="5:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P58" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q58" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R58" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S58" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E59" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M59" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="5:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P59" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q59" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R59" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S59" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E60" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M60" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="5:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P60" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q60" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R60" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S60" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E61" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M61" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="5:13" x14ac:dyDescent="0.25">
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P61" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q61" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R61" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S61" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="5:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E62" t="str">
         <f>IFERROR(VLOOKUP(Tableau1[[#This Row],[Niveau]],Tableau2[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M62" t="b">
-        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,"")</f>
-        <v>1</v>
+        <f>IF(Tableau1[[#This Row],[Niveau]]=0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P62" s="5" t="str">
+        <f>CONCATENATE("&lt;div class=""comp""&gt;&lt;h4 class=""nom""&gt;",Tableau1[[#This Row],[Nom]],"&lt;/h4&gt;&lt;table class=""spec""&gt;&lt;tr&gt;&lt;td class=""left""&gt;&lt;span class=""specifs""&gt;")</f>
+        <v>&lt;div class="comp"&gt;&lt;h4 class="nom"&gt;&lt;/h4&gt;&lt;table class="spec"&gt;&lt;tr&gt;&lt;td class="left"&gt;&lt;span class="specifs"&gt;</v>
+      </c>
+      <c r="Q62" s="6" t="str">
+        <f>IF(Tableau1[[#This Row],[Innée ?]],"&lt;span class=""passive""&gt;Action passive&lt;/span&gt;","")</f>
+        <v>&lt;span class="passive"&gt;Action passive&lt;/span&gt;</v>
+      </c>
+      <c r="R62" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Profil]]),"",CONCATENATE("&lt;span class=""profil""&gt;Profil ",Tableau1[[#This Row],[Profil]],"&lt;/span&gt;"))</f>
+        <v/>
+      </c>
+      <c r="S62" t="str">
+        <f>IF(ISBLANK(Tableau1[[#This Row],[Action de combat ?]]),"",CONCATENATE("&lt;span class=""combat""&gt;Action de combat&lt;/span&gt;"))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L62" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>profils</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C62" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>seuil_apprentissage</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1550,10 +2533,10 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -1561,10 +2544,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -1578,7 +2561,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1589,7 +2572,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -1600,7 +2583,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
